--- a/website_content_creation/authors/Casey_Croswell/Author_form.xlsx
+++ b/website_content_creation/authors/Casey_Croswell/Author_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Casey_Croswell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5C0CFDDA-93EC-4DAE-BFF1-84665D548C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC25A0AB-C450-4324-B029-C0769D1D700F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{5C0CFDDA-93EC-4DAE-BFF1-84665D548C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF46F4C9-C742-4541-942C-5341ECC99145}"/>
   <bookViews>
-    <workbookView xWindow="-7575" yWindow="-13245" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="1716" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Website Profile Form</t>
   </si>
@@ -144,22 +144,25 @@
     <t>Forestry Technician</t>
   </si>
   <si>
-    <t>Welcome to the Real You. | Sault College</t>
-  </si>
-  <si>
     <t>Climate change</t>
   </si>
   <si>
     <t>Spending time in nature</t>
   </si>
   <si>
-    <t>Great Lakes Forestry Centre - Natural Resources Canada</t>
-  </si>
-  <si>
     <t>Watershed Ecology Team</t>
   </si>
   <si>
     <t>FSWEP student technician</t>
+  </si>
+  <si>
+    <t>https://natural-resources.canada.ca/science-data/science-research/research-centres/great-lakes-forestry-centre</t>
+  </si>
+  <si>
+    <t>Great Lakes Forestry Centre</t>
+  </si>
+  <si>
+    <t>https://www.saultcollege.ca/</t>
   </si>
 </sst>
 </file>
@@ -807,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -842,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -890,9 +893,7 @@
       <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>42</v>
-      </c>
+      <c r="B11" s="26"/>
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -932,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1018,12 +1019,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
@@ -1068,12 +1073,12 @@
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2047,8 +2052,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{EA0C6CD1-6700-455D-B360-44DE96B7528C}"/>
-    <hyperlink ref="B28" r:id="rId2" display="https://www.saultcollege.ca/" xr:uid="{9F997F46-0EB2-4DFD-BE8F-8C828A5B00F6}"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://natural-resources.canada.ca/science-data/science-research/research-centres/great-lakes-forestry-centre" xr:uid="{253348B6-7AEC-4C21-81BE-0BE0423FBBD9}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{9F997F46-0EB2-4DFD-BE8F-8C828A5B00F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2059,6 +2063,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C38BD67A677FFD43A5676CB2984B33D7" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="982328828efe28c3d16045b59d7e0be0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b05b64ca-7fee-4e14-a457-e7c7d1c93f3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b657320f3e052f5377365a19da267c5f" ns3:_="">
     <xsd:import namespace="b05b64ca-7fee-4e14-a457-e7c7d1c93f3f"/>
@@ -2184,35 +2203,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BEE9D6-5C7E-4EC8-A4BA-9CEC944C2E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B65DF1-11EC-42DE-8408-7B6810232280}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b05b64ca-7fee-4e14-a457-e7c7d1c93f3f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2234,9 +2228,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B65DF1-11EC-42DE-8408-7B6810232280}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BEE9D6-5C7E-4EC8-A4BA-9CEC944C2E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b05b64ca-7fee-4e14-a457-e7c7d1c93f3f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
